--- a/Results/Categorization/lda2vec-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1793">
   <si>
     <t>id</t>
   </si>
@@ -4039,352 +4039,340 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|FOOD|FOOD</t>
@@ -4396,7 +4384,7 @@
     <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE</t>
@@ -4429,18 +4417,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4504,7 +4486,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4582,6 +4564,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4732,13 +4717,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4747,7 +4729,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4777,7 +4759,7 @@
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
+    <t>atmosphere|wait</t>
   </si>
   <si>
     <t>dish|reasonable|price</t>
@@ -4792,9 +4774,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4813,7 +4792,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4837,7 +4816,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4882,7 +4861,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4915,7 +4894,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4936,7 +4915,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -4957,9 +4936,6 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing</t>
-  </si>
-  <si>
     <t>seats|wall|benches</t>
   </si>
   <si>
@@ -4999,15 +4975,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5017,7 +4990,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5056,13 +5029,10 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
@@ -5134,16 +5104,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5158,7 +5125,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5167,7 +5134,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5203,7 +5170,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5254,9 +5221,6 @@
     <t>service|dish|price</t>
   </si>
   <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
     <t>dinner|wine</t>
   </si>
   <si>
@@ -5269,7 +5233,7 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
     <t>drinks</t>
@@ -5293,9 +5257,6 @@
     <t>place|would|feel|restaurant|price</t>
   </si>
   <si>
-    <t>place|food|thing</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -5308,7 +5269,7 @@
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>good|reasonable|thing|great|price</t>
+    <t>good|reasonable|great|price</t>
   </si>
   <si>
     <t>service|rude|well</t>
@@ -5838,10 +5799,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H2" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5867,7 +5828,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5890,10 +5851,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H4" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5916,10 +5877,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H5" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5942,10 +5903,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H6" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5968,10 +5929,10 @@
         <v>1285</v>
       </c>
       <c r="G7" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H7" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5994,10 +5955,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H8" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6020,10 +5981,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H9" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6046,10 +6007,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H10" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6072,10 +6033,10 @@
         <v>1294</v>
       </c>
       <c r="G11" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H11" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6095,13 +6056,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1473</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6121,13 +6082,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="G13" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="H13" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6147,13 +6108,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="H14" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6173,13 +6134,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="H15" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6199,13 +6160,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H16" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6225,13 +6186,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G17" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="H17" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6251,13 +6212,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="H18" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6283,7 +6244,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6303,13 +6264,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H20" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6335,7 +6296,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6361,7 +6322,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6381,13 +6342,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="H23" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6407,13 +6368,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G24" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="H24" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6439,7 +6400,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6459,13 +6420,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G26" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="H26" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6485,13 +6446,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G27" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="H27" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6514,10 +6475,10 @@
         <v>1285</v>
       </c>
       <c r="G28" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H28" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6537,13 +6498,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="H29" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6563,13 +6524,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="H30" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6589,13 +6550,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H31" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6615,13 +6576,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G32" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="H32" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6641,13 +6602,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G33" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H33" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6667,13 +6628,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="H34" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6696,10 +6657,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H35" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6719,13 +6680,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="H36" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6748,10 +6709,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H37" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6774,10 +6735,10 @@
         <v>1339</v>
       </c>
       <c r="G38" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H38" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6797,13 +6758,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G39" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H39" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6823,13 +6784,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1345</v>
+        <v>1355</v>
       </c>
       <c r="G40" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H40" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6852,10 +6813,10 @@
         <v>1356</v>
       </c>
       <c r="G41" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H41" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6875,13 +6836,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G42" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H42" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6904,10 +6865,10 @@
         <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H43" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6933,7 +6894,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6959,7 +6920,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6982,10 +6943,10 @@
         <v>1339</v>
       </c>
       <c r="G46" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H46" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7011,7 +6972,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7034,10 +6995,10 @@
         <v>1358</v>
       </c>
       <c r="G48" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="H48" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7060,10 +7021,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H49" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7086,10 +7047,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H50" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7112,10 +7073,10 @@
         <v>1359</v>
       </c>
       <c r="G51" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="H51" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7138,10 +7099,10 @@
         <v>1360</v>
       </c>
       <c r="G52" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H52" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7161,13 +7122,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G53" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="H53" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7190,10 +7151,10 @@
         <v>1361</v>
       </c>
       <c r="G54" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="H54" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7216,10 +7177,10 @@
         <v>1362</v>
       </c>
       <c r="G55" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H55" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7242,10 +7203,10 @@
         <v>1363</v>
       </c>
       <c r="G56" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="H56" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7268,10 +7229,10 @@
         <v>1364</v>
       </c>
       <c r="G57" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H57" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7294,10 +7255,10 @@
         <v>1358</v>
       </c>
       <c r="G58" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H58" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7320,10 +7281,10 @@
         <v>1365</v>
       </c>
       <c r="G59" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H59" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7346,10 +7307,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H60" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7375,7 +7336,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7398,10 +7359,10 @@
         <v>1366</v>
       </c>
       <c r="G62" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H62" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7424,10 +7385,10 @@
         <v>1367</v>
       </c>
       <c r="G63" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="H63" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7450,10 +7411,10 @@
         <v>1368</v>
       </c>
       <c r="G64" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H64" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7473,13 +7434,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="H65" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7499,13 +7460,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G66" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H66" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7525,13 +7486,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G67" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H67" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7557,7 +7518,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7580,10 +7541,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H69" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7606,10 +7567,10 @@
         <v>1285</v>
       </c>
       <c r="G70" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H70" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7635,7 +7596,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7658,10 +7619,10 @@
         <v>1369</v>
       </c>
       <c r="G72" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H72" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7684,10 +7645,10 @@
         <v>1370</v>
       </c>
       <c r="G73" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H73" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7710,10 +7671,10 @@
         <v>1371</v>
       </c>
       <c r="G74" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H74" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7739,7 +7700,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7759,13 +7720,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="H76" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7788,10 +7749,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="H77" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7814,10 +7775,10 @@
         <v>1339</v>
       </c>
       <c r="G78" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="H78" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7837,13 +7798,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G79" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="H79" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7866,10 +7827,10 @@
         <v>1372</v>
       </c>
       <c r="G80" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="H80" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7892,10 +7853,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="H81" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7918,10 +7879,10 @@
         <v>1373</v>
       </c>
       <c r="G82" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="H82" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7947,7 +7908,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7973,7 +7934,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7996,10 +7957,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="H85" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8022,10 +7983,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="H86" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8045,13 +8006,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G87" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="H87" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8074,10 +8035,10 @@
         <v>1361</v>
       </c>
       <c r="G88" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="H88" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8100,10 +8061,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H89" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8129,7 +8090,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8152,10 +8113,10 @@
         <v>1374</v>
       </c>
       <c r="G91" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="H91" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8178,10 +8139,10 @@
         <v>1357</v>
       </c>
       <c r="G92" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H92" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8204,10 +8165,10 @@
         <v>1375</v>
       </c>
       <c r="G93" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="H93" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8230,10 +8191,10 @@
         <v>1376</v>
       </c>
       <c r="G94" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="H94" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8256,10 +8217,10 @@
         <v>1377</v>
       </c>
       <c r="G95" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H95" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8282,10 +8243,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H96" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8308,10 +8269,10 @@
         <v>1285</v>
       </c>
       <c r="G97" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H97" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8334,10 +8295,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H98" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8360,10 +8321,10 @@
         <v>1378</v>
       </c>
       <c r="G99" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H99" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8386,10 +8347,10 @@
         <v>1379</v>
       </c>
       <c r="G100" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="H100" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8412,10 +8373,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H101" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8435,13 +8396,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G102" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H102" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8461,13 +8422,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G103" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H103" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8487,13 +8448,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G104" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H104" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8519,7 +8480,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8542,10 +8503,10 @@
         <v>1379</v>
       </c>
       <c r="G106" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="H106" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8568,10 +8529,10 @@
         <v>1369</v>
       </c>
       <c r="G107" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="H107" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8594,10 +8555,10 @@
         <v>1380</v>
       </c>
       <c r="G108" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H108" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8620,10 +8581,10 @@
         <v>1294</v>
       </c>
       <c r="G109" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H109" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8646,10 +8607,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H110" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8672,10 +8633,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H111" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8698,10 +8659,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H112" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8727,7 +8688,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8753,7 +8714,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8776,10 +8737,10 @@
         <v>1381</v>
       </c>
       <c r="G115" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="H115" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8802,10 +8763,10 @@
         <v>1382</v>
       </c>
       <c r="G116" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H116" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8828,10 +8789,10 @@
         <v>1383</v>
       </c>
       <c r="G117" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H117" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8854,10 +8815,10 @@
         <v>1384</v>
       </c>
       <c r="G118" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="H118" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8880,10 +8841,10 @@
         <v>1385</v>
       </c>
       <c r="G119" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="H119" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8909,7 +8870,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8935,7 +8896,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8961,7 +8922,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8987,7 +8948,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9010,10 +8971,10 @@
         <v>1378</v>
       </c>
       <c r="G124" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H124" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9036,10 +8997,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H125" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9065,7 +9026,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9088,10 +9049,10 @@
         <v>1294</v>
       </c>
       <c r="G127" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H127" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9111,13 +9072,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G128" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H128" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9140,10 +9101,10 @@
         <v>1386</v>
       </c>
       <c r="G129" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H129" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9166,10 +9127,10 @@
         <v>1385</v>
       </c>
       <c r="G130" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H130" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9192,10 +9153,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H131" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9218,10 +9179,10 @@
         <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H132" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9244,10 +9205,10 @@
         <v>1387</v>
       </c>
       <c r="G133" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H133" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9267,13 +9228,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G134" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H134" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9299,7 +9260,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9322,10 +9283,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H136" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9345,13 +9306,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G137" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H137" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9371,13 +9332,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G138" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H138" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9400,10 +9361,10 @@
         <v>1388</v>
       </c>
       <c r="G139" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H139" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9423,13 +9384,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G140" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H140" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9455,7 +9416,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9478,10 +9439,10 @@
         <v>1389</v>
       </c>
       <c r="G142" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="H142" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9504,10 +9465,10 @@
         <v>1361</v>
       </c>
       <c r="G143" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="H143" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9530,10 +9491,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H144" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9559,7 +9520,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9579,13 +9540,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G146" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="H146" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9611,7 +9572,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9634,10 +9595,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="H148" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9656,14 +9617,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1572</v>
-      </c>
       <c r="H149" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9683,13 +9638,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1390</v>
+        <v>1351</v>
       </c>
       <c r="G150" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="H150" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9715,7 +9670,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9735,13 +9690,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="H152" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9761,13 +9716,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G153" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="H153" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9787,13 +9742,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G154" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="H154" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9813,13 +9768,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="G155" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="H155" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9839,13 +9794,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G156" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="H156" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9868,10 +9823,10 @@
         <v>1294</v>
       </c>
       <c r="G157" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H157" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9894,10 +9849,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H158" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9917,13 +9872,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G159" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="H159" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9946,10 +9901,10 @@
         <v>1388</v>
       </c>
       <c r="G160" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="H160" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9975,7 +9930,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9995,13 +9950,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G162" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="H162" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10027,7 +9982,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10050,10 +10005,10 @@
         <v>1376</v>
       </c>
       <c r="G164" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="H164" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10073,13 +10028,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="G165" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="H165" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10099,13 +10054,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G166" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="H166" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10125,13 +10080,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G167" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="H167" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10154,10 +10109,10 @@
         <v>1393</v>
       </c>
       <c r="G168" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H168" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10180,10 +10135,10 @@
         <v>1394</v>
       </c>
       <c r="G169" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="H169" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10206,10 +10161,10 @@
         <v>1395</v>
       </c>
       <c r="G170" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="H170" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10229,13 +10184,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G171" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="H171" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10258,10 +10213,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H172" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10281,13 +10236,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G173" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="H173" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10310,10 +10265,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1592</v>
+        <v>1568</v>
       </c>
       <c r="H174" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10336,10 +10291,10 @@
         <v>1396</v>
       </c>
       <c r="G175" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H175" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10362,10 +10317,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H176" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10385,13 +10340,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G177" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="H177" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10414,10 +10369,10 @@
         <v>1397</v>
       </c>
       <c r="G178" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="H178" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10440,10 +10395,10 @@
         <v>1398</v>
       </c>
       <c r="G179" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="H179" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10466,10 +10421,10 @@
         <v>1399</v>
       </c>
       <c r="G180" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="H180" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10489,13 +10444,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G181" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H181" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10521,7 +10476,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10544,10 +10499,10 @@
         <v>1285</v>
       </c>
       <c r="G183" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H183" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10567,13 +10522,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="H184" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10593,13 +10548,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G185" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H185" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10619,13 +10574,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G186" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H186" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10645,13 +10600,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G187" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H187" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10677,7 +10632,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10697,13 +10652,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G189" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="H189" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10729,7 +10684,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10749,13 +10704,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G191" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="H191" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10778,10 +10733,10 @@
         <v>1370</v>
       </c>
       <c r="G192" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="H192" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10804,10 +10759,10 @@
         <v>1400</v>
       </c>
       <c r="G193" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="H193" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10830,10 +10785,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H194" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10859,7 +10814,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10879,13 +10834,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="H196" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10911,7 +10866,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10934,10 +10889,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H198" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10957,13 +10912,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1401</v>
+        <v>1349</v>
       </c>
       <c r="G199" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="H199" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10986,10 +10941,10 @@
         <v>1357</v>
       </c>
       <c r="G200" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="H200" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11009,13 +10964,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G201" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H201" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11035,13 +10990,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G202" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="H202" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11064,10 +11019,10 @@
         <v>1339</v>
       </c>
       <c r="G203" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="H203" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11087,13 +11042,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G204" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="H204" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11116,10 +11071,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="H205" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11139,13 +11094,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G206" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H206" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11171,7 +11126,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11194,10 +11149,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="H208" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11223,7 +11178,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11246,10 +11201,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="H210" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11269,13 +11224,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G211" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="H211" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11298,10 +11253,10 @@
         <v>1361</v>
       </c>
       <c r="G212" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H212" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11324,10 +11279,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H213" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11347,13 +11302,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G214" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H214" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11373,13 +11328,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G215" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H215" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11405,7 +11360,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11425,13 +11380,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H217" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11451,13 +11406,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1402</v>
+        <v>1365</v>
       </c>
       <c r="G218" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="H218" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11480,10 +11435,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H219" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11503,13 +11458,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G220" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="H220" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11535,7 +11490,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11555,13 +11510,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G222" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="H222" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11581,13 +11536,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G223" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="H223" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11607,13 +11562,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G224" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="H224" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11639,7 +11594,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11665,7 +11620,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11691,7 +11646,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11711,13 +11666,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G228" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="H228" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11737,13 +11692,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G229" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="H229" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11766,10 +11721,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H230" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11795,7 +11750,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11818,10 +11773,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="H232" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11844,10 +11799,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H233" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11870,10 +11825,10 @@
         <v>1339</v>
       </c>
       <c r="G234" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="H234" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11893,13 +11848,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1412</v>
+        <v>1341</v>
       </c>
       <c r="G235" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="H235" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11919,13 +11874,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G236" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="H236" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11945,13 +11900,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="G237" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H237" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11971,13 +11926,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G238" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="H238" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11997,13 +11952,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G239" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H239" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12023,13 +11978,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G240" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="H240" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12052,10 +12007,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H241" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12078,10 +12033,10 @@
         <v>1361</v>
       </c>
       <c r="G242" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="H242" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12104,10 +12059,10 @@
         <v>1370</v>
       </c>
       <c r="G243" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="H243" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12127,13 +12082,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="G244" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="H244" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12156,10 +12111,10 @@
         <v>1370</v>
       </c>
       <c r="G245" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="H245" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12185,7 +12140,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12205,13 +12160,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="G247" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="H247" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12237,7 +12192,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12257,13 +12212,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G249" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="H249" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12286,10 +12241,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="H250" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12309,13 +12264,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1412</v>
+        <v>1341</v>
       </c>
       <c r="G251" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="H251" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12335,13 +12290,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G252" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="H252" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12361,13 +12316,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G253" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="H253" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12393,7 +12348,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12416,10 +12371,10 @@
         <v>1361</v>
       </c>
       <c r="G255" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="H255" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12442,10 +12397,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H256" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12465,13 +12420,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G257" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="H257" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12491,13 +12446,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="G258" t="s">
-        <v>1647</v>
+        <v>1486</v>
       </c>
       <c r="H258" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12523,7 +12478,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12546,10 +12501,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H260" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12572,10 +12527,10 @@
         <v>1388</v>
       </c>
       <c r="G261" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="H261" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12601,7 +12556,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12621,13 +12576,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1394</v>
+        <v>1416</v>
       </c>
       <c r="G263" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="H263" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12650,10 +12605,10 @@
         <v>1384</v>
       </c>
       <c r="G264" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="H264" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12673,13 +12628,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1412</v>
+        <v>1341</v>
       </c>
       <c r="G265" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="H265" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12699,13 +12654,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="G266" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="H266" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12728,10 +12683,10 @@
         <v>1379</v>
       </c>
       <c r="G267" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="H267" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12754,10 +12709,10 @@
         <v>1373</v>
       </c>
       <c r="G268" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="H268" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12780,10 +12735,10 @@
         <v>1340</v>
       </c>
       <c r="G269" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="H269" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12809,7 +12764,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12829,13 +12784,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="G271" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="H271" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12858,10 +12813,10 @@
         <v>1285</v>
       </c>
       <c r="G272" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H272" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12881,13 +12836,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G273" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="H273" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12907,13 +12862,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G274" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="H274" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12933,13 +12888,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G275" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="H275" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12959,13 +12914,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="G276" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="H276" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12988,10 +12943,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H277" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13011,13 +12966,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1426</v>
+        <v>1407</v>
       </c>
       <c r="G278" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="H278" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13040,10 +12995,10 @@
         <v>1384</v>
       </c>
       <c r="G279" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="H279" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13063,13 +13018,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1376</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1663</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13095,7 +13050,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13115,13 +13070,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G282" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="H282" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13147,7 +13102,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13167,13 +13122,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="G284" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="H284" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13196,10 +13151,10 @@
         <v>1371</v>
       </c>
       <c r="G285" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="H285" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13219,13 +13174,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="G286" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="H286" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13245,13 +13200,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="G287" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="H287" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13274,10 +13229,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H288" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13300,10 +13255,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H289" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13323,13 +13278,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1394</v>
+        <v>1416</v>
       </c>
       <c r="G290" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="H290" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13352,10 +13307,10 @@
         <v>1384</v>
       </c>
       <c r="G291" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="H291" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13375,13 +13330,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G292" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="H292" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13401,13 +13356,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G293" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="H293" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13427,13 +13382,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G294" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H294" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13459,7 +13414,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13479,13 +13434,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G296" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H296" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13508,10 +13463,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H297" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13531,13 +13486,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="G298" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="H298" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13557,13 +13512,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G299" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="H299" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13583,13 +13538,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="G300" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="H300" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13612,10 +13567,10 @@
         <v>1388</v>
       </c>
       <c r="G301" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="H301" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13635,13 +13590,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G302" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="H302" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13667,7 +13622,7 @@
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13693,7 +13648,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13719,7 +13674,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13739,13 +13694,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G306" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="H306" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13771,7 +13726,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13794,10 +13749,10 @@
         <v>1378</v>
       </c>
       <c r="G308" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H308" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13823,7 +13778,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13849,7 +13804,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13875,7 +13830,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13895,13 +13850,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G312" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="H312" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13921,13 +13876,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1680</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13953,7 +13908,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13973,13 +13928,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="G315" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="H315" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13999,13 +13954,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1416</v>
+        <v>1427</v>
       </c>
       <c r="G316" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H316" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14025,13 +13980,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G317" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H317" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14051,13 +14006,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G318" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="H318" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14076,8 +14031,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14097,13 +14058,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G320" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="H320" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14123,13 +14084,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G321" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="H321" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14149,13 +14110,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G322" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="H322" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14175,13 +14136,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1414</v>
+        <v>1394</v>
       </c>
       <c r="G323" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="H323" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14201,13 +14162,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G324" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H324" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14233,7 +14194,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14259,7 +14220,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14279,13 +14240,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G327" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="H327" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14305,13 +14266,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G328" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="H328" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14331,13 +14292,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G329" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="H329" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14360,10 +14321,10 @@
         <v>1285</v>
       </c>
       <c r="G330" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H330" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14383,13 +14344,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G331" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="H331" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14412,10 +14373,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H332" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14438,10 +14399,10 @@
         <v>1369</v>
       </c>
       <c r="G333" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="H333" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14464,10 +14425,10 @@
         <v>1278</v>
       </c>
       <c r="G334" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="H334" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14487,13 +14448,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G335" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="H335" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14513,13 +14474,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1394</v>
+        <v>1416</v>
       </c>
       <c r="G336" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="H336" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14542,10 +14503,10 @@
         <v>1370</v>
       </c>
       <c r="G337" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H337" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14568,10 +14529,10 @@
         <v>1373</v>
       </c>
       <c r="G338" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="H338" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14594,10 +14555,10 @@
         <v>1377</v>
       </c>
       <c r="G339" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="H339" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14620,10 +14581,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="H340" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14646,10 +14607,10 @@
         <v>1373</v>
       </c>
       <c r="G341" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="H341" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14669,13 +14630,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G342" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H342" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14695,13 +14656,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G343" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="H343" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14721,13 +14682,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G344" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="H344" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14747,13 +14708,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G345" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H345" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14773,13 +14734,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G346" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="H346" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14799,13 +14760,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G347" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="H347" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14831,7 +14792,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14857,7 +14818,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14877,13 +14838,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H350" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14903,13 +14864,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G351" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H351" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14929,13 +14890,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="G352" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H352" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14961,7 +14922,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14981,13 +14942,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1414</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1706</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15010,10 +14971,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="H355" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15039,7 +15000,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15059,13 +15020,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G357" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="H357" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15085,13 +15046,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H358" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15114,10 +15075,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H359" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15143,7 +15104,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15166,10 +15127,10 @@
         <v>1339</v>
       </c>
       <c r="G361" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="H361" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15192,10 +15153,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H362" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15215,13 +15176,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G363" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
       <c r="H363" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15241,13 +15202,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="G364" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="H364" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15270,10 +15231,10 @@
         <v>1358</v>
       </c>
       <c r="G365" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="H365" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15293,13 +15254,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G366" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="H366" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15322,10 +15283,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H367" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15345,13 +15306,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G368" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="H368" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15374,10 +15335,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H369" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15396,14 +15357,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1572</v>
-      </c>
       <c r="H370" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15423,13 +15378,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G371" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="H371" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15452,10 +15407,10 @@
         <v>1388</v>
       </c>
       <c r="G372" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="H372" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15475,13 +15430,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1443</v>
+        <v>1398</v>
       </c>
       <c r="G373" t="s">
-        <v>1714</v>
+        <v>1703</v>
       </c>
       <c r="H373" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15501,7 +15456,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15527,7 +15482,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15547,13 +15502,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="G376" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
       <c r="H376" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15573,13 +15528,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="G377" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
       <c r="H377" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15599,13 +15554,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1342</v>
+        <v>1440</v>
       </c>
       <c r="G378" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
       <c r="H378" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15625,13 +15580,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G379" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
       <c r="H379" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15651,13 +15606,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G380" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
       <c r="H380" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15680,10 +15635,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H381" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15703,13 +15658,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="G382" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
       <c r="H382" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15729,13 +15684,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G383" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
       <c r="H383" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15755,13 +15710,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="G384" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="H384" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15781,13 +15736,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G385" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H385" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15807,13 +15762,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="G386" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="H386" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15839,7 +15794,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15859,13 +15814,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G388" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H388" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15885,13 +15840,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G389" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="H389" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15914,10 +15869,10 @@
         <v>1378</v>
       </c>
       <c r="G390" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H390" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15937,13 +15892,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G391" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
       <c r="H391" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15963,13 +15918,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G392" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
       <c r="H392" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15992,10 +15947,10 @@
         <v>1357</v>
       </c>
       <c r="G393" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="H393" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16015,13 +15970,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="G394" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
       <c r="H394" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16044,10 +15999,10 @@
         <v>1338</v>
       </c>
       <c r="G395" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
       <c r="H395" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16067,13 +16022,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1345</v>
+        <v>1388</v>
       </c>
       <c r="G396" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
       <c r="H396" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16093,13 +16048,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="G397" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="H397" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16125,7 +16080,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16148,10 +16103,10 @@
         <v>1338</v>
       </c>
       <c r="G399" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="H399" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16171,13 +16126,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="G400" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="H400" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16203,7 +16158,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16229,7 +16184,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16252,10 +16207,10 @@
         <v>1388</v>
       </c>
       <c r="G403" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="H403" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16275,13 +16230,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G404" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="H404" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16304,10 +16259,10 @@
         <v>1357</v>
       </c>
       <c r="G405" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="H405" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16333,7 +16288,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16353,13 +16308,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="G407" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="H407" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16382,10 +16337,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H408" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16411,7 +16366,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16437,7 +16392,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16460,10 +16415,10 @@
         <v>1379</v>
       </c>
       <c r="G411" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="H411" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16486,10 +16441,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H412" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16509,13 +16464,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G413" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H413" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16535,13 +16490,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G414" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="H414" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16564,10 +16519,10 @@
         <v>1378</v>
       </c>
       <c r="G415" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="H415" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16587,13 +16542,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G416" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
       <c r="H416" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16616,10 +16571,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H417" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16639,13 +16594,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1401</v>
+        <v>1449</v>
       </c>
       <c r="G418" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="H418" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16665,13 +16620,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G419" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H419" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16691,13 +16646,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="G420" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
       <c r="H420" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16720,10 +16675,10 @@
         <v>1388</v>
       </c>
       <c r="G421" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
       <c r="H421" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16743,13 +16698,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G422" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H422" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16775,7 +16730,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16801,7 +16756,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16824,10 +16779,10 @@
         <v>1388</v>
       </c>
       <c r="G425" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
       <c r="H425" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16847,13 +16802,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G426" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
       <c r="H426" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16873,13 +16828,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="G427" t="s">
-        <v>1746</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16902,10 +16857,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H428" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16928,10 +16883,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H429" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16951,13 +16906,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G430" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="H430" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16977,13 +16932,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G431" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="H431" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17009,7 +16964,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17029,13 +16984,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G433" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="H433" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17055,13 +17010,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G434" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="H434" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17081,13 +17036,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G435" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="H435" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17113,7 +17068,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17136,10 +17091,10 @@
         <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H437" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17165,7 +17120,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17188,10 +17143,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="H439" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17211,13 +17166,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G440" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="H440" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17237,13 +17192,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="G441" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H441" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17263,13 +17218,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="G442" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="H442" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17292,10 +17247,10 @@
         <v>1357</v>
       </c>
       <c r="G443" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="H443" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17318,10 +17273,10 @@
         <v>1385</v>
       </c>
       <c r="G444" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="H444" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17341,13 +17296,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="G445" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="H445" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17367,13 +17322,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G446" t="s">
-        <v>1759</v>
+        <v>1518</v>
       </c>
       <c r="H446" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17396,10 +17351,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="H447" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17422,10 +17377,10 @@
         <v>1385</v>
       </c>
       <c r="G448" t="s">
+        <v>1748</v>
+      </c>
+      <c r="H448" t="s">
         <v>1761</v>
-      </c>
-      <c r="H448" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17448,10 +17403,10 @@
         <v>1339</v>
       </c>
       <c r="G449" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="H449" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17471,13 +17426,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G450" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H450" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17497,13 +17452,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G451" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="H451" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17529,7 +17484,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17549,13 +17504,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="G453" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="H453" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17575,13 +17530,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="G454" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="H454" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17601,13 +17556,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="G455" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="H455" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17627,13 +17582,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G456" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="H456" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17656,10 +17611,10 @@
         <v>1339</v>
       </c>
       <c r="G457" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="H457" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17685,7 +17640,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17708,10 +17663,10 @@
         <v>1358</v>
       </c>
       <c r="G459" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="H459" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17737,7 +17692,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17757,13 +17712,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="G461" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="H461" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17789,7 +17744,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17812,10 +17767,10 @@
         <v>1378</v>
       </c>
       <c r="G463" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H463" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-elmo_ori.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo_ori.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1783">
   <si>
     <t>id</t>
   </si>
@@ -4027,373 +4027,343 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>place|rude|like|staff</t>
@@ -5799,10 +5769,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="H2" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5828,7 +5798,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5851,10 +5821,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="H4" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5874,13 +5844,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="H5" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5903,10 +5873,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="H6" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5926,13 +5896,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G7" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H7" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5952,13 +5922,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="H8" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5981,10 +5951,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="H9" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6007,10 +5977,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="H10" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6030,13 +6000,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H11" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6062,7 +6032,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6082,13 +6052,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H13" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6108,13 +6078,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="H14" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6134,13 +6104,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="H15" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6160,13 +6130,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="H16" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6186,13 +6156,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="H17" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6212,13 +6182,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G18" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="H18" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6244,7 +6214,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6267,10 +6237,10 @@
         <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H20" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6290,13 +6260,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6322,7 +6292,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6345,10 +6315,10 @@
         <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="H23" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6368,13 +6338,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="H24" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6400,7 +6370,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6420,13 +6390,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="H26" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6446,13 +6416,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="H27" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6472,13 +6442,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="H28" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6498,13 +6468,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="H29" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6524,13 +6494,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="H30" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6550,13 +6520,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="H31" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6576,13 +6546,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G32" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="H32" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6602,13 +6572,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="H33" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6628,13 +6598,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G34" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="H34" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6657,10 +6627,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H35" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6680,13 +6650,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G36" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="H36" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6706,13 +6676,13 @@
         <v>1276</v>
       </c>
       <c r="F37" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G37" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="H37" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6732,13 +6702,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="G38" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="H38" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6758,13 +6728,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="G39" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="H39" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6784,13 +6754,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G40" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="H40" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6810,13 +6780,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G41" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="H41" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6836,13 +6806,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G42" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="H42" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6862,13 +6832,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G43" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="H43" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6894,7 +6864,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6920,7 +6890,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6943,10 +6913,10 @@
         <v>1339</v>
       </c>
       <c r="G46" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="H46" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6972,7 +6942,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6992,13 +6962,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="H48" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7021,10 +6991,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="H49" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7047,10 +7017,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="H50" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7070,13 +7040,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G51" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="H51" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7096,13 +7066,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="G52" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="H52" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7122,13 +7092,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="H53" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7148,13 +7118,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="H54" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7174,13 +7144,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G55" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="H55" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7200,13 +7170,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G56" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="H56" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7226,13 +7196,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G57" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="H57" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7252,13 +7222,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G58" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="H58" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7278,13 +7248,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G59" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="H59" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7304,13 +7274,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="H60" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7336,7 +7306,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7356,13 +7326,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G62" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="H62" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7382,13 +7352,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1367</v>
+        <v>1345</v>
       </c>
       <c r="G63" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="H63" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7408,13 +7378,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1368</v>
+        <v>1350</v>
       </c>
       <c r="G64" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="H64" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7434,13 +7404,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G65" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="H65" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7460,13 +7430,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G66" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="H66" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7486,13 +7456,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="H67" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7518,7 +7488,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7541,10 +7511,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="H69" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7564,13 +7534,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="H70" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7596,7 +7566,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7616,13 +7586,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G72" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="H72" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7642,13 +7612,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G73" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="H73" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7668,13 +7638,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="H74" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7700,7 +7670,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7720,13 +7690,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G76" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="H76" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7749,10 +7719,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="H77" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7772,13 +7742,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G78" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="H78" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7798,13 +7768,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="H79" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7824,13 +7794,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="G80" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="H80" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7853,10 +7823,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="H81" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7876,13 +7846,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G82" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="H82" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7908,7 +7878,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7934,7 +7904,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7957,10 +7927,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="H85" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7983,10 +7953,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="H86" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8006,13 +7976,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
       <c r="G87" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="H87" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8032,13 +8002,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G88" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="H88" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8058,13 +8028,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="H89" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8090,7 +8060,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8110,13 +8080,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G91" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="H91" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8136,13 +8106,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="H92" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8162,13 +8132,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="G93" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="H93" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8188,13 +8158,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1376</v>
+        <v>1338</v>
       </c>
       <c r="G94" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="H94" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8214,13 +8184,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="G95" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="H95" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8240,13 +8210,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="H96" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8266,13 +8236,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G97" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="H97" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8292,13 +8262,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G98" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="H98" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8318,13 +8288,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G99" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H99" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8344,13 +8314,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G100" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="H100" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8370,13 +8340,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H101" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8396,13 +8366,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1342</v>
+        <v>1368</v>
       </c>
       <c r="G102" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="H102" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8422,13 +8392,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1349</v>
+        <v>1365</v>
       </c>
       <c r="G103" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="H103" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8448,13 +8418,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="H104" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8480,7 +8450,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8500,13 +8470,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G106" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="H106" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8526,13 +8496,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G107" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="H107" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8552,13 +8522,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="G108" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="H108" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8578,13 +8548,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H109" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8604,13 +8574,13 @@
         <v>1276</v>
       </c>
       <c r="F110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="H110" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8633,10 +8603,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="H111" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8659,10 +8629,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="H112" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8688,7 +8658,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8714,7 +8684,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8734,13 +8704,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G115" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="H115" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8760,13 +8730,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="G116" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="H116" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8786,13 +8756,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1383</v>
+        <v>1338</v>
       </c>
       <c r="G117" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="H117" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8812,13 +8782,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="G118" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="H118" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8838,13 +8808,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1385</v>
+        <v>1338</v>
       </c>
       <c r="G119" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="H119" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8870,7 +8840,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8896,7 +8866,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8922,7 +8892,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8948,7 +8918,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8968,13 +8938,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="H124" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8994,13 +8964,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="H125" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9026,7 +8996,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9046,13 +9016,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H127" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9072,13 +9042,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G128" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="H128" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9098,13 +9068,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1386</v>
+        <v>1346</v>
       </c>
       <c r="G129" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="H129" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9124,13 +9094,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1385</v>
+        <v>1338</v>
       </c>
       <c r="G130" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="H130" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9150,13 +9120,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G131" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="H131" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9176,13 +9146,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G132" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="H132" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9202,13 +9172,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1387</v>
+        <v>1346</v>
       </c>
       <c r="G133" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="H133" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9228,13 +9198,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G134" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="H134" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9260,7 +9230,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9283,10 +9253,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="H136" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9306,13 +9276,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G137" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="H137" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9332,13 +9302,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="G138" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="H138" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9358,13 +9328,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="G139" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="H139" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9384,13 +9354,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="H140" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9416,7 +9386,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9436,13 +9406,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1389</v>
+        <v>1373</v>
       </c>
       <c r="G142" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="H142" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9462,13 +9432,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G143" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="H143" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9491,10 +9461,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="H144" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9520,7 +9490,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9540,13 +9510,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1351</v>
+        <v>1370</v>
       </c>
       <c r="G146" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="H146" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9572,7 +9542,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9592,13 +9562,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="H148" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9618,7 +9588,7 @@
         <v>1277</v>
       </c>
       <c r="H149" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9638,13 +9608,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1351</v>
+        <v>1370</v>
       </c>
       <c r="G150" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="H150" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9670,7 +9640,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9693,10 +9663,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="H152" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9716,13 +9686,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="G153" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="H153" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9742,13 +9712,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1391</v>
+        <v>1366</v>
       </c>
       <c r="G154" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="H154" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9768,13 +9738,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="H155" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9794,13 +9764,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="H156" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9820,13 +9790,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="H157" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9846,13 +9816,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="H158" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9872,13 +9842,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G159" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="H159" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9898,13 +9868,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G160" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="H160" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9930,7 +9900,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9950,13 +9920,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G162" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="H162" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9982,7 +9952,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10002,13 +9972,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1376</v>
+        <v>1338</v>
       </c>
       <c r="G164" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="H164" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10028,13 +9998,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="G165" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="H165" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10054,13 +10024,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G166" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="H166" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10080,13 +10050,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="H167" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10106,13 +10076,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="G168" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="H168" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10132,13 +10102,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="G169" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="H169" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10158,13 +10128,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="G170" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="H170" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10184,13 +10154,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="H171" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10210,13 +10180,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G172" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="H172" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10236,13 +10206,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="H173" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10265,10 +10235,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="H174" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10288,13 +10258,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="G175" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="H175" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10317,10 +10287,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="H176" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10340,13 +10310,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="H177" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10366,13 +10336,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="G178" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="H178" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10392,13 +10362,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="G179" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="H179" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10418,13 +10388,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="G180" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="H180" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10444,13 +10414,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
       <c r="G181" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="H181" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10476,7 +10446,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10496,13 +10466,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="H183" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10525,10 +10495,10 @@
         <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="H184" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10548,13 +10518,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G185" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H185" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10574,13 +10544,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G186" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="H186" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10600,13 +10570,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="H187" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10632,7 +10602,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10652,13 +10622,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G189" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="H189" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10684,7 +10654,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10704,13 +10674,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="H191" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10730,13 +10700,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
       <c r="G192" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="H192" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10756,13 +10726,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="G193" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="H193" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10785,10 +10755,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="H194" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10814,7 +10784,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10834,13 +10804,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1342</v>
+        <v>1368</v>
       </c>
       <c r="G196" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="H196" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10866,7 +10836,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10889,10 +10859,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="H198" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10912,13 +10882,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="H199" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10938,13 +10908,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="G200" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="H200" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10964,13 +10934,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G201" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="H201" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10990,13 +10960,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="G202" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="H202" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11016,13 +10986,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G203" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="H203" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11042,13 +11012,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1402</v>
+        <v>1369</v>
       </c>
       <c r="G204" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="H204" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11071,10 +11041,10 @@
         <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="H205" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11094,13 +11064,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="G206" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="H206" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11126,7 +11096,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11149,10 +11119,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="H208" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11178,7 +11148,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11201,10 +11171,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="H210" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11224,13 +11194,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="G211" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="H211" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11250,13 +11220,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G212" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="H212" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11279,10 +11249,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H213" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11302,13 +11272,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="G214" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="H214" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11328,13 +11298,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G215" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="H215" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11360,7 +11330,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11380,13 +11350,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G217" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="H217" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11406,13 +11376,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="G218" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="H218" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11435,10 +11405,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="H219" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11458,13 +11428,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="G220" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="H220" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11490,7 +11460,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11510,13 +11480,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1407</v>
+        <v>1345</v>
       </c>
       <c r="G222" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="H222" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11536,13 +11506,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G223" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="H223" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11562,13 +11532,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G224" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="H224" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11594,7 +11564,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11620,7 +11590,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11646,7 +11616,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11666,13 +11636,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G228" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="H228" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11692,13 +11662,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="G229" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="H229" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11721,10 +11691,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H230" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11750,7 +11720,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11773,10 +11743,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="H232" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11799,10 +11769,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H233" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11822,13 +11792,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1339</v>
+        <v>1364</v>
       </c>
       <c r="G234" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="H234" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11848,13 +11818,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1341</v>
+        <v>1398</v>
       </c>
       <c r="G235" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="H235" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11874,13 +11844,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="G236" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="H236" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11900,13 +11870,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="G237" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="H237" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11926,13 +11896,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="G238" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="H238" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11952,13 +11922,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G239" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="H239" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11978,13 +11948,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1413</v>
+        <v>1383</v>
       </c>
       <c r="G240" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="H240" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12007,10 +11977,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H241" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12030,13 +12000,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="G242" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="H242" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12056,13 +12026,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G243" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="H243" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12082,13 +12052,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1394</v>
+        <v>1345</v>
       </c>
       <c r="G244" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="H244" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12108,13 +12078,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1370</v>
+        <v>1401</v>
       </c>
       <c r="G245" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="H245" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12140,7 +12110,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12160,13 +12130,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1407</v>
+        <v>1344</v>
       </c>
       <c r="G247" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="H247" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12192,7 +12162,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12212,13 +12182,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="G249" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="H249" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12241,10 +12211,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="H250" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12264,13 +12234,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1341</v>
+        <v>1403</v>
       </c>
       <c r="G251" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="H251" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12290,13 +12260,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="G252" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="H252" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12316,13 +12286,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1407</v>
+        <v>1375</v>
       </c>
       <c r="G253" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="H253" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12348,7 +12318,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12368,13 +12338,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="H255" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12397,10 +12367,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H256" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12420,13 +12390,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="H257" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12446,13 +12416,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G258" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H258" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12478,7 +12448,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12501,10 +12471,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H260" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12524,13 +12494,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G261" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="H261" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12556,7 +12526,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12576,13 +12546,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="G263" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="H263" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12602,13 +12572,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1384</v>
+        <v>1406</v>
       </c>
       <c r="G264" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="H264" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12628,13 +12598,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1341</v>
+        <v>1398</v>
       </c>
       <c r="G265" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="H265" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12654,13 +12624,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="G266" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="H266" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12680,13 +12650,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1379</v>
+        <v>1408</v>
       </c>
       <c r="G267" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="H267" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12706,13 +12676,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1373</v>
+        <v>1383</v>
       </c>
       <c r="G268" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="H268" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12732,13 +12702,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G269" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="H269" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12764,7 +12734,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12784,13 +12754,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="G271" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="H271" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12810,13 +12780,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G272" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="H272" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12836,13 +12806,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G273" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="H273" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12862,13 +12832,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1420</v>
+        <v>1388</v>
       </c>
       <c r="G274" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="H274" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12888,13 +12858,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="G275" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="H275" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12914,13 +12884,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="G276" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="H276" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12943,10 +12913,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H277" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12966,13 +12936,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1407</v>
+        <v>1345</v>
       </c>
       <c r="G278" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="H278" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12992,13 +12962,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="G279" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="H279" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13024,7 +12994,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13044,13 +13014,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G281" t="s">
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13070,13 +13040,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="G282" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="H282" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13096,13 +13066,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13122,13 +13092,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G284" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="H284" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13148,13 +13118,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1371</v>
+        <v>1413</v>
       </c>
       <c r="G285" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="H285" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13174,13 +13144,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="G286" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="H286" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13200,13 +13170,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1417</v>
+        <v>1383</v>
       </c>
       <c r="G287" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="H287" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13226,13 +13196,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="H288" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13252,13 +13222,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="H289" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13278,13 +13248,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G290" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="H290" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13304,13 +13274,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1384</v>
+        <v>1406</v>
       </c>
       <c r="G291" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="H291" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13330,13 +13300,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="G292" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="H292" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13356,13 +13326,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1420</v>
+        <v>1379</v>
       </c>
       <c r="G293" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="H293" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13382,13 +13352,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G294" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="H294" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13414,7 +13384,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13434,13 +13404,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G296" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="H296" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13463,10 +13433,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H297" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13486,13 +13456,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1392</v>
+        <v>1364</v>
       </c>
       <c r="G298" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="H298" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13515,10 +13485,10 @@
         <v>1345</v>
       </c>
       <c r="G299" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
       <c r="H299" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13538,13 +13508,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1394</v>
+        <v>1362</v>
       </c>
       <c r="G300" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="H300" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13564,13 +13534,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="G301" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="H301" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13590,13 +13560,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G302" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="H302" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13616,13 +13586,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G303" t="s">
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13648,7 +13618,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13674,7 +13644,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13694,13 +13664,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1407</v>
+        <v>1345</v>
       </c>
       <c r="G306" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="H306" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13726,7 +13696,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13746,13 +13716,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1378</v>
+        <v>1418</v>
       </c>
       <c r="G308" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H308" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13778,7 +13748,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13804,7 +13774,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13830,7 +13800,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13850,13 +13820,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G312" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="H312" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13882,7 +13852,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13908,7 +13878,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13928,13 +13898,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="G315" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="H315" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13954,13 +13924,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="G316" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="H316" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13980,13 +13950,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G317" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="H317" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14006,13 +13976,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="H318" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14038,7 +14008,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14058,13 +14028,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1342</v>
+        <v>1382</v>
       </c>
       <c r="G320" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="H320" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14084,13 +14054,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G321" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="H321" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14110,13 +14080,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1428</v>
+        <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="H322" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14136,13 +14106,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1394</v>
+        <v>1345</v>
       </c>
       <c r="G323" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="H323" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14162,13 +14132,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G324" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="H324" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14194,7 +14164,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14220,7 +14190,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14240,13 +14210,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1407</v>
+        <v>1345</v>
       </c>
       <c r="G327" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="H327" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14266,13 +14236,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1342</v>
+        <v>1421</v>
       </c>
       <c r="G328" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="H328" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14292,13 +14262,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G329" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="H329" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14318,13 +14288,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="H330" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14344,13 +14314,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="G331" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="H331" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14370,13 +14340,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G332" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="H332" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14396,13 +14366,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G333" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="H333" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14422,13 +14392,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H334" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14448,13 +14418,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="G335" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="H335" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14474,13 +14444,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="G336" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="H336" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14500,13 +14470,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
       <c r="G337" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="H337" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14526,13 +14496,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1373</v>
+        <v>1425</v>
       </c>
       <c r="G338" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="H338" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14552,13 +14522,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1377</v>
+        <v>1388</v>
       </c>
       <c r="G339" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="H339" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14578,13 +14548,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="H340" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14604,13 +14574,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1373</v>
+        <v>1425</v>
       </c>
       <c r="G341" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="H341" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14630,13 +14600,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="G342" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H342" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14656,13 +14626,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="G343" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="H343" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14682,13 +14652,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="G344" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="H344" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14708,13 +14678,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="G345" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="H345" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14734,13 +14704,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="G346" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="H346" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14760,13 +14730,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="H347" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14792,7 +14762,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14818,7 +14788,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14841,10 +14811,10 @@
         <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H350" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14864,13 +14834,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="G351" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="H351" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14890,13 +14860,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="G352" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H352" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14922,7 +14892,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14948,7 +14918,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14971,10 +14941,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H355" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15000,7 +14970,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15020,13 +14990,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="G357" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="H357" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15049,10 +15019,10 @@
         <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="H358" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15075,10 +15045,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="H359" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15104,7 +15074,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15124,13 +15094,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G361" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="H361" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15150,13 +15120,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="H362" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15176,13 +15146,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="G363" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="H363" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15202,13 +15172,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1430</v>
+        <v>1359</v>
       </c>
       <c r="G364" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="H364" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15228,13 +15198,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G365" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="H365" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15254,13 +15224,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G366" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="H366" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15283,10 +15253,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="H367" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15306,13 +15276,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G368" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="H368" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15332,13 +15302,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G369" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="H369" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15358,7 +15328,7 @@
         <v>1285</v>
       </c>
       <c r="H370" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15378,13 +15348,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1419</v>
+        <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="H371" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15404,13 +15374,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1388</v>
+        <v>1354</v>
       </c>
       <c r="G372" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="H372" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15430,13 +15400,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1398</v>
+        <v>1357</v>
       </c>
       <c r="G373" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="H373" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15456,7 +15426,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15482,7 +15452,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15502,13 +15472,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="G376" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H376" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15528,13 +15498,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1439</v>
+        <v>1383</v>
       </c>
       <c r="G377" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H377" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15554,13 +15524,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="G378" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="H378" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15580,13 +15550,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="G379" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="H379" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15606,13 +15576,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G380" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="H380" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15635,10 +15605,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H381" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15658,13 +15628,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="G382" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="H382" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15684,13 +15654,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="G383" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H383" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15710,13 +15680,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="G384" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="H384" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15736,13 +15706,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G385" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="H385" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15762,13 +15732,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="G386" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="H386" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15794,7 +15764,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15814,13 +15784,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G388" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="H388" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15840,13 +15810,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G389" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="H389" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15866,13 +15836,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G390" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H390" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15892,13 +15862,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G391" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="H391" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15918,13 +15888,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G392" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="H392" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15944,13 +15914,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="G393" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="H393" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15970,13 +15940,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1392</v>
+        <v>1440</v>
       </c>
       <c r="G394" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="H394" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15996,13 +15966,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G395" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="H395" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16022,13 +15992,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G396" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="H396" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16048,13 +16018,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G397" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="H397" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16080,7 +16050,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16100,13 +16070,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1338</v>
+        <v>1376</v>
       </c>
       <c r="G399" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="H399" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16126,13 +16096,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1447</v>
+        <v>1393</v>
       </c>
       <c r="G400" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="H400" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16158,7 +16128,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16184,7 +16154,7 @@
         <v>1227</v>
       </c>
       <c r="H402" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16204,13 +16174,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G403" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="H403" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16230,13 +16200,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="H404" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16256,13 +16226,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="G405" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="H405" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16288,7 +16258,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16308,13 +16278,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="G407" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="H407" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16337,10 +16307,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="H408" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16366,7 +16336,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16392,7 +16362,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16412,13 +16382,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="G411" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="H411" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16438,13 +16408,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="H412" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16464,13 +16434,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G413" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="H413" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16490,13 +16460,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="H414" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16516,13 +16486,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1378</v>
+        <v>1340</v>
       </c>
       <c r="G415" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="H415" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16542,13 +16512,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
       <c r="G416" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="H416" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16571,10 +16541,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="H417" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16594,13 +16564,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1449</v>
+        <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="H418" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16620,13 +16590,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G419" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="H419" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16646,13 +16616,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="G420" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="H420" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16672,13 +16642,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="G421" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H421" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16698,13 +16668,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1419</v>
+        <v>1380</v>
       </c>
       <c r="G422" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="H422" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16730,7 +16700,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16756,7 +16726,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16776,13 +16746,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="G425" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="H425" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16802,13 +16772,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="G426" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="H426" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16828,13 +16798,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16857,10 +16827,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="H428" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16883,10 +16853,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H429" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16906,13 +16876,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="H430" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16932,13 +16902,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1342</v>
+        <v>1364</v>
       </c>
       <c r="G431" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="H431" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16964,7 +16934,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16984,13 +16954,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="G433" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="H433" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17010,13 +16980,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="H434" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17036,13 +17006,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="G435" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="H435" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17068,7 +17038,7 @@
         <v>947</v>
       </c>
       <c r="H436" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17091,10 +17061,10 @@
         <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="H437" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17120,7 +17090,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17143,10 +17113,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="H439" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17166,13 +17136,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="G440" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="H440" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17192,13 +17162,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1453</v>
+        <v>1346</v>
       </c>
       <c r="G441" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="H441" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17218,13 +17188,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1454</v>
+        <v>1338</v>
       </c>
       <c r="G442" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="H442" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17244,13 +17214,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="G443" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="H443" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17270,13 +17240,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1385</v>
+        <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="H444" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17296,13 +17266,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="G445" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="H445" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17322,13 +17292,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G446" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="H446" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17351,10 +17321,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="H447" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17374,13 +17344,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="G448" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="H448" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17400,13 +17370,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
       <c r="G449" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="H449" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17426,13 +17396,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="H450" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17452,13 +17422,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G451" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="H451" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17484,7 +17454,7 @@
         <v>1000</v>
       </c>
       <c r="H452" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17504,13 +17474,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="G453" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H453" t="s">
         <v>1751</v>
-      </c>
-      <c r="H453" t="s">
-        <v>1761</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17530,13 +17500,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1457</v>
+        <v>1348</v>
       </c>
       <c r="G454" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="H454" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17556,13 +17526,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="G455" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="H455" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17582,13 +17552,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="G456" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="H456" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17611,10 +17581,10 @@
         <v>1339</v>
       </c>
       <c r="G457" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="H457" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17640,7 +17610,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17660,13 +17630,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G459" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="H459" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17692,7 +17662,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17712,13 +17682,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1392</v>
+        <v>1440</v>
       </c>
       <c r="G461" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="H461" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17744,7 +17714,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17764,13 +17734,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="H463" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
   </sheetData>
